--- a/data/trans_dic/iP30B5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B5_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>95,53%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,55; 96,27</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,54; 96,8</t>
+          <t>72,25; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,37; 95,81</t>
+          <t>83,33; 100,0</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>93,99%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,52; 98,32</t>
+          <t>90,55; 96,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,99; 96,38</t>
+          <t>90,54; 96,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,47; 96,77</t>
+          <t>91,37; 95,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>84,84%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>78,62; 89,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,25; 100,0</t>
+          <t>78,82; 89,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,33; 100,0</t>
+          <t>80,77; 88,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>95,18%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,62; 89,39</t>
+          <t>92,52; 98,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,82; 89,36</t>
+          <t>89,99; 96,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,77; 88,3</t>
+          <t>92,47; 96,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B5_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 96,34</t>
+          <t>72,93; 96,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,74; 99,37</t>
+          <t>93,09; 99,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,06; 97,2</t>
+          <t>81,09; 97,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,55; 96,27</t>
+          <t>90,4; 96,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,54; 96,8</t>
+          <t>90,7; 96,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,37; 95,81</t>
+          <t>91,53; 95,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,62; 89,39</t>
+          <t>77,89; 88,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,82; 89,36</t>
+          <t>78,64; 89,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,77; 88,3</t>
+          <t>80,57; 88,25</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,52; 98,32</t>
+          <t>93,2; 98,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,99; 96,38</t>
+          <t>90,43; 96,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,47; 96,77</t>
+          <t>93,06; 96,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,41; 93,61</t>
+          <t>88,6; 93,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,9; 93,82</t>
+          <t>89,96; 93,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,18; 93,25</t>
+          <t>90,17; 93,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
